--- a/lookup_pys/envelop_nonres5.xlsx
+++ b/lookup_pys/envelop_nonres5.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\E_Plus_2030_py\lookup_pys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B4A70E-AD1E-4E56-A7EC-CDEBD9F2F5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDCF703-38F3-4011-9E72-1711354204F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36096" yWindow="-12480" windowWidth="23232" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2670" windowWidth="29040" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -557,15 +570,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1933" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1956" sqref="C1956"/>
+    <sheetView tabSelected="1" topLeftCell="A1954" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="7" max="11" width="16.140625" customWidth="1"/>
     <col min="13" max="14" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
